--- a/templates/dataplant/MIAPPE/MIAPPE_-_Nutrients.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Nutrients.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -254,70 +254,37 @@
     <t/>
   </si>
   <si>
-    <t>Concentration of the nutrients</t>
-  </si>
-  <si>
-    <t>Extractable N content per unit ground area before fertiliser added</t>
-  </si>
-  <si>
-    <t>The current practice in field /greenhouse management for fertilization</t>
-  </si>
-  <si>
-    <t>Concentration of a nutrient at the start of an experiment.</t>
-  </si>
-  <si>
-    <t>Extractable N content per unit ground area at the end of the experiment</t>
-  </si>
-  <si>
-    <t>A defined volume of water supplied to each pot.</t>
-  </si>
-  <si>
-    <t>Range in water potential for soil.</t>
-  </si>
-  <si>
-    <t>The treatment involving an exposure to watering frequencies.</t>
-  </si>
-  <si>
-    <t>For all nutrients, including micronutrients, the ontology term with concentration.</t>
-  </si>
-  <si>
-    <t>A conductivity quality inhering in a bearer by virtue of the bearer's ability to convey electricity.</t>
-  </si>
-  <si>
     <t>Ca (XEO:00058): 5 mg/L</t>
   </si>
   <si>
+    <t>milligram per square meter</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000309</t>
+  </si>
+  <si>
+    <t>nitrogen: [concentration]; phosphorus: [concentration]</t>
+  </si>
+  <si>
     <t>[mg/m2]</t>
   </si>
   <si>
-    <t>nitrogen: [concentration]; phosphorus: [concentration]</t>
-  </si>
-  <si>
-    <t>[L]</t>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000099</t>
   </si>
   <si>
     <t>-10 to -30 kPa</t>
   </si>
   <si>
-    <t>irrigation from top; irrigation from bottom; drip irrigation</t>
-  </si>
-  <si>
-    <t>[dS m–1]</t>
-  </si>
-  <si>
-    <t>XEML Environment Ontology:'XEO_00042' + Numeric</t>
-  </si>
-  <si>
-    <t>XEML Environment Ontology:'XEO_00054' +Numeric</t>
-  </si>
-  <si>
-    <t>Crop Ontology:'CO_715:0000204' + Numeric</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>drip irrigation</t>
+  </si>
+  <si>
+    <t>dS m-1</t>
   </si>
 </sst>
 </file>
@@ -373,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AJ4" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AJ4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AJ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AJ2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -951,7 +918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1078,61 +1045,61 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s">
-        <v>79</v>
-      </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="W2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X2" t="s">
         <v>79</v>
@@ -1141,7 +1108,7 @@
         <v>79</v>
       </c>
       <c r="Z2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA2" t="s">
         <v>79</v>
@@ -1150,7 +1117,7 @@
         <v>79</v>
       </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s">
         <v>79</v>
@@ -1159,7 +1126,7 @@
         <v>79</v>
       </c>
       <c r="AF2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="s">
         <v>79</v>
@@ -1171,226 +1138,6 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ4" t="s">
         <v>79</v>
       </c>
     </row>

--- a/templates/dataplant/MIAPPE/MIAPPE_-_Nutrients.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Nutrients.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Template to describe the nutrients according to MIAPPE. Not all fields may be applicable for every experiment.</t>
+    <t>Template to describe the nutrients used for plant growth according to MIAPPE. Not all fields may be applicable for every experiment.</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -74,18 +74,30 @@
     <t>MIAPPE</t>
   </si>
   <si>
-    <t>Nutrients</t>
+    <t>nutrient</t>
+  </si>
+  <si>
+    <t>Growth Medium</t>
   </si>
   <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MIAPPE_0130</t>
+    <t>https://bioregistry.io/CHEBI:33284</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C85504</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
     <t>AUTHORS</t>
   </si>
   <si>
@@ -218,13 +230,13 @@
     <t>Term Accession Number (MIAPPE:0137)</t>
   </si>
   <si>
-    <t>Parameter [Watering regimen]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0138)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0138)</t>
+    <t>Parameter [Watering regime]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0161)</t>
   </si>
   <si>
     <t>Parameter [Composition of nutrient solutions used for irrigation]</t>
@@ -263,7 +275,7 @@
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000309</t>
+    <t>https://bioregistry.io/UO:0000309</t>
   </si>
   <si>
     <t>nitrogen: [concentration]; phosphorus: [concentration]</t>
@@ -275,7 +287,7 @@
     <t>liter</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000099</t>
+    <t>https://bioregistry.io/UO:0000099</t>
   </si>
   <si>
     <t>-10 to -30 kPa</t>
@@ -405,9 +417,9 @@
     <tableColumn id="23" name="Parameter [Matrix potential]" totalsRowFunction="none"/>
     <tableColumn id="24" name="Term Source REF (MIAPPE:0137)" totalsRowFunction="none"/>
     <tableColumn id="25" name="Term Accession Number (MIAPPE:0137)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Parameter [Watering regimen]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (MIAPPE:0138)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (MIAPPE:0138)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Parameter [Watering regime]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (MIAPPE:0161)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (MIAPPE:0161)" totalsRowFunction="none"/>
     <tableColumn id="29" name="Parameter [Composition of nutrient solutions used for irrigation]" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (MIAPPE:0139)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (MIAPPE:0139)" totalsRowFunction="none"/>
@@ -718,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -799,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -809,105 +821,114 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -923,222 +944,222 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AC1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AD1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AE1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AG1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AJ1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
         <v>86</v>
       </c>
-      <c r="U2" t="s">
-        <v>82</v>
-      </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AB2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AD2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AE2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AF2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AG2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
